--- a/Importación_GUIA/9. Importación_Inmuebles.xlsx
+++ b/Importación_GUIA/9. Importación_Inmuebles.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inventarioV2\Importacion_Inventario_GUIA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="858"/>
+    <workbookView windowWidth="25600" windowHeight="10260" tabRatio="858"/>
   </bookViews>
   <sheets>
     <sheet name="Importación_Inmuebles" sheetId="5" r:id="rId1"/>
@@ -18,96 +13,480 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Importación_Inmuebles!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Importación_Inmuebles!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
+  <si>
+    <t>000001</t>
+  </si>
   <si>
     <t>Casa</t>
   </si>
   <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>En uso</t>
   </si>
   <si>
+    <t>DIIE</t>
+  </si>
+  <si>
+    <t>Borburata</t>
+  </si>
+  <si>
     <t>Gustavo Guedez</t>
   </si>
   <si>
+    <t>14062579</t>
+  </si>
+  <si>
     <t>CIDE</t>
   </si>
   <si>
+    <t>ABAE</t>
+  </si>
+  <si>
+    <t>chequeado</t>
+  </si>
+  <si>
     <t>Inmuebles</t>
   </si>
   <si>
-    <t>chequeado</t>
-  </si>
-  <si>
-    <t>000001</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>DIIE</t>
-  </si>
-  <si>
-    <t>Borburata</t>
-  </si>
-  <si>
-    <t>ABAE</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>14062579</t>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>14062580</t>
+  </si>
+  <si>
+    <t>000003</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>14062581</t>
+  </si>
+  <si>
+    <t>000004</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>14062582</t>
+  </si>
+  <si>
+    <t>000005</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>14062583</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>14062584</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -130,67 +509,353 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2_INVENTARIO SOLICITADO" xfId="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="1" builtinId="52"/>
+    <cellStyle name="Normal 2_INVENTARIO SOLICITADO" xfId="2"/>
+    <cellStyle name="40% - Énfasis6" xfId="3" builtinId="51"/>
+    <cellStyle name="20% - Énfasis6" xfId="4" builtinId="50"/>
+    <cellStyle name="40% - Énfasis5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
+    <cellStyle name="Énfasis5" xfId="7" builtinId="45"/>
+    <cellStyle name="40% - Énfasis4" xfId="8" builtinId="43"/>
+    <cellStyle name="Énfasis4" xfId="9" builtinId="41"/>
+    <cellStyle name="40% - Énfasis3" xfId="10" builtinId="39"/>
+    <cellStyle name="Celda vinculada" xfId="11" builtinId="24"/>
+    <cellStyle name="20% - Énfasis3" xfId="12" builtinId="38"/>
+    <cellStyle name="40% - Énfasis2" xfId="13" builtinId="35"/>
+    <cellStyle name="60% - Énfasis1" xfId="14" builtinId="32"/>
+    <cellStyle name="20% - Énfasis1" xfId="15" builtinId="30"/>
+    <cellStyle name="Moneda [0]" xfId="16" builtinId="7"/>
+    <cellStyle name="60% - Énfasis4" xfId="17" builtinId="44"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29"/>
+    <cellStyle name="Incorrecto" xfId="19" builtinId="27"/>
+    <cellStyle name="Correcto" xfId="20" builtinId="26"/>
+    <cellStyle name="Énfasis6" xfId="21" builtinId="49"/>
+    <cellStyle name="40% - Énfasis1" xfId="22" builtinId="31"/>
+    <cellStyle name="Total" xfId="23" builtinId="25"/>
+    <cellStyle name="60% - Énfasis2" xfId="24" builtinId="36"/>
+    <cellStyle name="Énfasis2" xfId="25" builtinId="33"/>
+    <cellStyle name="Moneda" xfId="26" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="27" builtinId="5"/>
+    <cellStyle name="Texto explicativo" xfId="28" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="29" builtinId="16"/>
+    <cellStyle name="Celda de comprobación" xfId="30" builtinId="23"/>
+    <cellStyle name="Cálculo" xfId="31" builtinId="22"/>
+    <cellStyle name="Título 4" xfId="32" builtinId="19"/>
+    <cellStyle name="Título 3" xfId="33" builtinId="18"/>
+    <cellStyle name="Título 2" xfId="34" builtinId="17"/>
+    <cellStyle name="20% - Énfasis2" xfId="35" builtinId="34"/>
+    <cellStyle name="Neutro" xfId="36" builtinId="28"/>
+    <cellStyle name="60% - Énfasis3" xfId="37" builtinId="40"/>
+    <cellStyle name="Título" xfId="38" builtinId="15"/>
+    <cellStyle name="Salida" xfId="39" builtinId="21"/>
+    <cellStyle name="60% - Énfasis5" xfId="40" builtinId="48"/>
+    <cellStyle name="Coma" xfId="41" builtinId="3"/>
+    <cellStyle name="Entrada" xfId="42" builtinId="20"/>
+    <cellStyle name="Nota" xfId="43" builtinId="10"/>
+    <cellStyle name="20% - Énfasis4" xfId="44" builtinId="42"/>
+    <cellStyle name="Hipervínculo visitado" xfId="45" builtinId="9"/>
+    <cellStyle name="Coma [0]" xfId="46" builtinId="6"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8"/>
+    <cellStyle name="Énfasis3" xfId="48" builtinId="37"/>
+    <cellStyle name="Texto de advertencia" xfId="49" builtinId="11"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF99FF99"/>
-      <color rgb="FFFF99CC"/>
-      <color rgb="FF66FFFF"/>
-      <color rgb="FF1F497D"/>
-      <color rgb="FFCCFFFF"/>
-      <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFCCFF"/>
-      <color rgb="FF99FFCC"/>
-      <color rgb="FFCC99FF"/>
-      <color rgb="FFFF7D7D"/>
+      <color rgb="0099FF99"/>
+      <color rgb="00FF99CC"/>
+      <color rgb="0066FFFF"/>
+      <color rgb="001F497D"/>
+      <color rgb="00CCFFFF"/>
+      <color rgb="00FFFFCC"/>
+      <color rgb="00FFCCFF"/>
+      <color rgb="0099FFCC"/>
+      <color rgb="00CC99FF"/>
+      <color rgb="00FF7D7D"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -239,7 +904,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,7 +939,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,121 +1113,423 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.859375" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="19.85546875" style="8"/>
+    <col min="1" max="1" width="8.4296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.859375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.859375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.4296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.2890625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.2890625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.859375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5.859375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.859375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.859375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="24.2890625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="10" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.859375" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="19.859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="K1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="7">
+        <v>5</v>
+      </c>
+      <c r="P1" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>44585</v>
+      </c>
+      <c r="R1" s="8">
+        <v>44585</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5">
+      <c r="T1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5">
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5">
-        <v>2</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="7">
+        <v>6</v>
+      </c>
+      <c r="P2" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>44586</v>
+      </c>
+      <c r="R2" s="8">
+        <v>44586</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="7">
+        <v>7</v>
+      </c>
+      <c r="P3" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>44587</v>
+      </c>
+      <c r="R3" s="8">
+        <v>44587</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="7">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="P4" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>44588</v>
+      </c>
+      <c r="R4" s="8">
+        <v>44588</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="N5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="7">
+        <v>9</v>
+      </c>
+      <c r="P5" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>44589</v>
+      </c>
+      <c r="R5" s="8">
+        <v>44589</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="5" t="s">
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="H6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="3">
-        <v>5</v>
-      </c>
-      <c r="P1" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>44585</v>
-      </c>
-      <c r="R1" s="4">
-        <v>44585</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>4</v>
+      <c r="O6" s="7">
+        <v>10</v>
+      </c>
+      <c r="P6" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>44590</v>
+      </c>
+      <c r="R6" s="8">
+        <v>44590</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.236220472440945" right="0.236220472440945" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;G</oddHeader>
     <oddFooter>&amp;LUDIT: Unidad de Desarrollo e Innovación Tecnológica&amp;CPage &amp;P of &amp;N&amp;RInventario de TEXTOS ABAE_ABAE_BORBURATA
 Elaborado por: Karla Mieres /William Figueredo</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="L1 A1 C1" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <legacyDrawingHF r:id="rId2"/>
+  <legacyDrawingHF r:id="rId1"/>
 </worksheet>
 </file>
--- a/Importación_GUIA/9. Importación_Inmuebles.xlsx
+++ b/Importación_GUIA/9. Importación_Inmuebles.xlsx
@@ -61,7 +61,7 @@
     <t>Inmuebles</t>
   </si>
   <si>
-    <t>Óptimo</t>
+    <t>Optimo</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/Importación_GUIA/9. Importación_Inmuebles.xlsx
+++ b/Importación_GUIA/9. Importación_Inmuebles.xlsx
@@ -58,10 +58,10 @@
     <t>chequeado</t>
   </si>
   <si>
-    <t>Inmuebles</t>
-  </si>
-  <si>
     <t>Optimo</t>
+  </si>
+  <si>
+    <t>inmuebles</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -503,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>4</v>
@@ -539,7 +539,7 @@
         <v>10</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Importación_GUIA/9. Importación_Inmuebles.xlsx
+++ b/Importación_GUIA/9. Importación_Inmuebles.xlsx
@@ -452,14 +452,14 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
